--- a/public/import_staff_excel/staff_list.xlsx
+++ b/public/import_staff_excel/staff_list.xlsx
@@ -1,21 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365"/>
   </bookViews>
   <sheets>
-    <sheet name="mySheet" sheetId="1" r:id="rId4"/>
+    <sheet name="mySheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+  <si>
+    <t>Staff Name</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Home Phone</t>
+  </si>
+  <si>
+    <t>Work Phone</t>
+  </si>
+  <si>
+    <t>Expertise</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
+  </si>
+  <si>
+    <t>9876543210</t>
+  </si>
+  <si>
+    <t>its a test address for find anyrhing</t>
+  </si>
   <si>
     <t>rajibb jana</t>
   </si>
@@ -26,83 +67,54 @@
     <t>rajib@g.com</t>
   </si>
   <si>
-    <t>9876543210</t>
-  </si>
-  <si>
     <t>testingg</t>
   </si>
   <si>
     <t>tsett</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2018-09-19 07:30:42</t>
-  </si>
-  <si>
-    <t>Chandan Mondal</t>
-  </si>
-  <si>
-    <t>chnadan</t>
-  </si>
-  <si>
-    <t>chandan.ncrts@gmail.com</t>
-  </si>
-  <si>
-    <t>9857773838</t>
-  </si>
-  <si>
-    <t>Software developer, Android Developer Mobile developer Software developer, Android Developer Mobile developer Software developer, Android Developer Mobile developer</t>
-  </si>
-  <si>
-    <t>8794562130</t>
-  </si>
-  <si>
-    <t>Software developer, Android Developer Mobile developer</t>
-  </si>
-  <si>
-    <t>http://localhost/squeedr/uploads/profile_image/1539179706bg-image.jpg</t>
-  </si>
-  <si>
-    <t>2018-10-10 10:14:15</t>
-  </si>
-  <si>
-    <t>Mrinmoy Das</t>
-  </si>
-  <si>
-    <t>mrinmoy</t>
-  </si>
-  <si>
-    <t>mrinmoy.ncrts@gmail.com</t>
-  </si>
-  <si>
-    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book.</t>
-  </si>
-  <si>
-    <t>0987654321</t>
-  </si>
-  <si>
-    <t>Test, test, test, test</t>
-  </si>
-  <si>
-    <t>http://localhost/squeedr/uploads/profile_image/1539176591gst.png</t>
-  </si>
-  <si>
-    <t>2018-10-10 13:03:11</t>
+    <t>asdasdsa sadasds</t>
+  </si>
+  <si>
+    <t>sadsad</t>
+  </si>
+  <si>
+    <t>sadsad@gmail.com</t>
+  </si>
+  <si>
+    <t>sadasd dfdfd</t>
+  </si>
+  <si>
+    <t>Rajib</t>
+  </si>
+  <si>
+    <t>testttingff</t>
+  </si>
+  <si>
+    <t>testsdsdsd@gmail.com</t>
+  </si>
+  <si>
+    <t>Testingg</t>
+  </si>
+  <si>
+    <t>sadasdsadsa</t>
+  </si>
+  <si>
+    <t>sadasdasd</t>
+  </si>
+  <si>
+    <t>sadasdsa@w.com</t>
+  </si>
+  <si>
+    <t>asdasdasd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -113,28 +125,29 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -424,39 +437,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.567139" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="28.135986" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="290.072021" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="9.10" bestFit="true" style="0"/>
-    <col min="8" max="8" width="64.841309" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="2.285156" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="9.10" bestFit="true" style="0"/>
-    <col min="11" max="11" width="82.408447" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="2.285156" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="9.10" bestFit="true" style="0"/>
-    <col min="14" max="14" width="2.285156" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="2.285156" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="2.285156" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="23.422852" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,125 +475,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>16</v>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="D3">
-        <v>987654321</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="K3" t="s">
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="L3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="B5" t="s">
         <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="" right="" top="" bottom="" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>